--- a/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/p3.xlsx
+++ b/MainTop/07.06.2025/таня месяц с 06.05.2025 по 06.06.2025/p3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Термонаклейка Дисней злодеи Друзья Friends </t>
+          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
+          <t>Термонаклейка Синий лев с золотыми акцентами</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка Синий лев с золотыми акцентами</t>
+          <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1083,11 +1083,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Лошадь в золотых и мраморных тонах</t>
+          <t>Термонаклейка Инь Янь Леопарды</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Леопарды</t>
+          <t>Термонаклейка Девушка с колибри роза кольцо</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с колибри роза кольцо</t>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
+          <t>Термонаклейка Кот цветы внутри</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Термонаклейка Кот цветы внутри</t>
+          <t>Термонаклейка Девушка с галактической магией</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с галактической магией</t>
+          <t>Термонаклейка Розовый фламинго цветы</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Термонаклейка Розовый фламинго цветы</t>
+          <t>Термонаклейка Фламинго крупный план</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Термонаклейка Фламинго крупный план</t>
+          <t>Термонаклейка Девушка Маска Доберман Собака</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Маска Доберман Собака</t>
+          <t>Термонаклейка Черепаха Цветы на панцире</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1218,7 +1218,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Термонаклейка Черепаха Цветы на панцире</t>
+          <t>Термонаклейка Тигр в витражном стиле</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр в витражном стиле</t>
+          <t>Термонаклейка Лес Гитара Закат</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Термонаклейка Лес Гитара Закат</t>
+          <t>Термонаклейка Фламинго Flamingo цветы</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Термонаклейка Фламинго Flamingo цветы</t>
+          <t>Термонаклейка Сердце Бабочки летят</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Бабочки летят</t>
+          <t>Термонаклейка Девушка с фламинго</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с фламинго</t>
+          <t>Термонаклейка Пантера силует внутри цветы</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Термонаклейка Пантера силует внутри цветы</t>
+          <t>Термонаклейка Королева с бокалом игральная карта</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Термонаклейка Королева с бокалом игральная карта</t>
+          <t>Термонаклейка Лев Краски Дизайн</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Термонаклейка Лев Краски Дизайн</t>
+          <t>Термонаклейка Кассета цветы Vintage Soul</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Термонаклейка Кассета цветы Vintage Soul</t>
+          <t>Термонаклейка Леопард пятна сердечки полностью</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Термонаклейка Леопард пятна сердечки полностью</t>
+          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1383,7 +1383,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
+          <t>Термонаклейка Котенок розовый закат звезды</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок розовый закат звезды</t>
+          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка с мыльными пузырями</t>
+          <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка в цветах и фонарях</t>
+          <t>Термонаклейка Давид статуя цветы</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Термонаклейка Давид статуя цветы</t>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
+          <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр с букетом жёлтых тюльпанов</t>
+          <t>Термонаклейка Сейлор Мун Sailor Moon радуется</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1488,7 +1488,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Термонаклейка Сейлор Мун Sailor Moon радуется</t>
+          <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Термонаклейка Аниме девочка белые волосы уши кошки</t>
+          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+          <t>Термонаклейка Мэрилин Монро фото буквы</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Термонаклейка Мэрилин Монро фото буквы</t>
+          <t>Термонаклейка Инь Янь Кошки</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Кошки</t>
+          <t>Термонаклейка Подсолнух Ван Гог</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Термонаклейка Подсолнух Ван Гог</t>
+          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+          <t>Термонаклейка Цветы Розовые Лилии</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Розовые Лилии</t>
+          <t>Термонаклейка Матрешка Moscow</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Термонаклейка Матрешка Moscow</t>
+          <t>Термонаклейка набор Соник Sonic</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Соник Sonic</t>
+          <t>Термонаклейка Черный Кот Силует астрономия</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Термонаклейка Черный Кот Силует астрономия</t>
+          <t>Термонаклейка Тукан цветы</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Термонаклейка Тукан цветы</t>
+          <t>Термонаклейка Черный Кот в цветах</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Термонаклейка Черный Кот в цветах</t>
+          <t>Термонаклейка набор Винни Пух</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Винни Пух</t>
+          <t>Термонаклейка Девушка на закате держат руки море</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка на закате держат руки море</t>
+          <t>Термонаклейка Кит хвост из волн море океан</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит хвост из волн море океан</t>
+          <t>Термонаклейка набор Симпсоны The Simpsons</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Симпсоны The Simpsons</t>
+          <t>Термонаклейка Бабочка you are free to fly</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка you are free to fly</t>
+          <t>Термонаклейка Мэрилин Монро буквы</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1758,7 +1758,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Термонаклейка Мэрилин Монро буквы</t>
+          <t>Термонаклейка Мопс Собачка попа секси</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1773,7 +1773,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Термонаклейка Мопс Собачка попа секси</t>
+          <t>Термонаклейка Штрихкод I Love You</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1788,22 +1788,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Термонаклейка Штрихкод I Love You</t>
+          <t>Термонаклейка Зайчик ромашка в руках</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1_а4</t>
+          <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Термонаклейка Зайчик ромашка в руках</t>
+          <t>Термонаклейка Девочка Ангел с хвостами</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1818,11 +1818,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Термонаклейка Девочка Ангел с хвостами</t>
+          <t>Термонаклейка Зайка балерина</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Термонаклейка Зайка балерина</t>
+          <t>Термонаклейка Единорог с ромашкой сердечки</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1848,11 +1848,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Термонаклейка Единорог с ромашкой сердечки</t>
+          <t>Термонаклейка Лило и Стич сидят</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
